--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_007\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesuk\Documents\GitHub\DemoS_007_SL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB06FB35-FE53-4BB6-906A-FE6DA5315333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804DDF8-125C-46BF-A900-3CAE73A2D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_ELC" sheetId="4" r:id="rId1"/>
@@ -24,27 +24,19 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1239,14 +1231,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1310,21 +1302,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1339,7 +1331,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1358,16 +1350,22 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1465,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1484,22 +1482,20 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -1533,72 +1529,32 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,82 +1563,65 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 4 2" xfId="8"/>
-    <cellStyle name="Normal 8" xfId="9"/>
-    <cellStyle name="Normal 9 2" xfId="10"/>
-    <cellStyle name="Normale_B2020" xfId="11"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Percent 2 2" xfId="13"/>
-    <cellStyle name="Percent 3" xfId="14"/>
-    <cellStyle name="Percent 3 2" xfId="15"/>
-    <cellStyle name="Percent 4" xfId="16"/>
-    <cellStyle name="Percent 4 2" xfId="17"/>
-    <cellStyle name="Percent 5" xfId="18"/>
-    <cellStyle name="Percent 5 2" xfId="19"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="20"/>
+    <cellStyle name="20% - 강조색5" xfId="1" builtinId="46"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 9 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normale_B2020" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색2" xfId="2" builtinId="33"/>
+    <cellStyle name="좋음" xfId="4" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2441,7 +2380,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2576,9 +2515,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2616,9 +2555,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2651,26 +2590,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2703,26 +2625,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2895,766 +2800,677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="7" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="15" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
     <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="53"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+    </row>
+    <row r="3" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q5" s="80" t="s">
+      <c r="R4" s="44"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="80" t="s">
+      <c r="V5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="80" t="s">
+      <c r="X5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="80" t="s">
+      <c r="Y5" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:25" ht="36" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="82" t="s">
+      <c r="H6" s="8"/>
+      <c r="Q6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="82" t="s">
+      <c r="R6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="82" t="s">
+      <c r="W6" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="82" t="s">
+      <c r="X6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="82" t="s">
+      <c r="Y6" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H7" s="8"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="4"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="78" t="s">
+      <c r="Q10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="78"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="R10" s="44"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="80" t="s">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="81" t="s">
+      <c r="R11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="80" t="s">
+      <c r="S11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="80" t="s">
+      <c r="U11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="80" t="s">
+      <c r="V11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="80" t="s">
+      <c r="W11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="80" t="s">
+      <c r="X11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="80" t="s">
+      <c r="Y11" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="82" t="s">
+      <c r="Q12" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="82" t="s">
+      <c r="R12" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="S12" s="82" t="s">
+      <c r="S12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="T12" s="82" t="s">
+      <c r="T12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="82" t="s">
+      <c r="W12" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="X12" s="82" t="s">
+      <c r="X12" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="82" t="s">
+      <c r="Y12" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="83" t="s">
+      <c r="O13" s="18"/>
+      <c r="Q13" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83" t="s">
+      <c r="R13" s="49"/>
+      <c r="S13" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="83" t="s">
+      <c r="T13" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="U13" s="83" t="s">
+      <c r="U13" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="V13" s="83" t="s">
+      <c r="V13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W13" s="84" t="s">
+      <c r="W13" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="25">
         <v>2006</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="26">
         <v>0.42</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="26">
         <v>0.85</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>1650</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="26">
         <v>35</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="26">
         <v>0.4</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>40</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>31.536000000000001</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="26">
         <v>1</v>
       </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83" t="s">
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="T14" s="83" t="s">
+      <c r="T14" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="U14" s="83" t="s">
+      <c r="U14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="83" t="s">
+      <c r="V14" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83" t="s">
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D15" s="24" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="M15" s="69">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="M15" s="39">
         <f>99.8/G14</f>
         <v>237.61904761904762</v>
       </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83" t="s">
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="T15" s="83" t="s">
+      <c r="T15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="83" t="s">
+      <c r="U15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="83" t="s">
+      <c r="V15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>2005</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="26">
         <v>0.3</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="26">
         <v>0.85</v>
       </c>
-      <c r="I16" s="26">
-        <v>250</v>
-      </c>
-      <c r="J16" s="31">
+      <c r="I16" s="22">
+        <f>250*1.25</f>
+        <v>312.5</v>
+      </c>
+      <c r="J16" s="26">
         <v>15</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="26">
         <v>0.2</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>40</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="24">
+      <c r="M16" s="25"/>
+      <c r="N16" s="22">
         <v>31.536000000000001</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="26">
         <v>1</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D17" s="24" t="s">
+      <c r="T16" s="20"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="39">
         <f>56.1/G16</f>
         <v>187</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
+      <c r="T17" s="20"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <v>2006</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <v>0.85</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <v>750</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="26">
         <v>30</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="26">
         <v>0.35</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <v>30</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="24">
+      <c r="M18" s="25"/>
+      <c r="N18" s="22">
         <v>31.536000000000001</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="26">
         <v>1</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="24" t="s">
+    </row>
+    <row r="19" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>2006</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="26">
         <v>0.5</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="M19" s="69">
+      <c r="H19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="M19" s="39">
         <f>76.4/G19</f>
         <v>152.80000000000001</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D20" s="24" t="s">
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <v>2010</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="26">
         <v>0.51</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="M20" s="69">
+      <c r="H20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="M20" s="39">
         <f>76.4/G20</f>
         <v>149.80392156862746</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D21" s="24" t="s">
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>2015</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="26">
         <v>0.52</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="M21" s="69">
+      <c r="H21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="M21" s="39">
         <f>76.4/G21</f>
         <v>146.92307692307693</v>
       </c>
-      <c r="O21" s="30"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D22" s="24" t="s">
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>2020</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M22" s="69">
+      <c r="M22" s="39">
         <f>76.4/G22</f>
         <v>138.90909090909091</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3666,188 +3482,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="1:21" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M5" s="80" t="s">
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="80" t="s">
+      <c r="P5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="80" t="s">
+      <c r="Q5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="82" t="s">
+    <row r="6" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="M6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="82" t="s">
+      <c r="P6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="82" t="s">
+      <c r="Q6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="82" t="s">
+      <c r="R6" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
@@ -3855,715 +3656,616 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="40"/>
-      <c r="M10" s="78" t="s">
+      <c r="J10" s="31"/>
+      <c r="M10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="N10" s="44"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="81" t="s">
+      <c r="N11" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="80" t="s">
+      <c r="O11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="80" t="s">
+      <c r="P11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="80" t="s">
+      <c r="Q11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="80" t="s">
+      <c r="R11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="80" t="s">
+      <c r="S11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="80" t="s">
+      <c r="U11" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="82" t="s">
+      <c r="O12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="82" t="s">
+      <c r="Q12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="82" t="s">
+      <c r="R12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="82" t="s">
+      <c r="S12" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="82" t="s">
+      <c r="T12" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+    <row r="13" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="84" t="s">
+      <c r="M13" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83" t="s">
+      <c r="N13" s="49"/>
+      <c r="O13" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="86" t="s">
+      <c r="P13" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="Q13" s="83" t="s">
+      <c r="Q13" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="83" t="s">
+      <c r="R13" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="29">
         <v>2006</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="30">
         <v>1.2</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="30">
         <v>0.95</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="30">
         <v>0.24</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14">
         <v>20</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="70">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="K15" s="40">
         <f>56.1/F14</f>
         <v>46.75</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I20" s="40"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I21" s="40"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-    </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.2">
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="20"/>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="31"/>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:22" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N3" s="80" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="Q3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="80" t="s">
+      <c r="R3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="80" t="s">
+      <c r="T3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="80" t="s">
+      <c r="U3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="80" t="s">
+      <c r="V3" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="7" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="82" t="s">
+    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="N4" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="82" t="s">
+      <c r="T4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="40"/>
-      <c r="M8"/>
-      <c r="N8" s="78" t="s">
+      <c r="K8" s="31"/>
+      <c r="N8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="80" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="80" t="s">
+      <c r="Q9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="80" t="s">
+      <c r="T9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="80" t="s">
+      <c r="U9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="80" t="s">
+      <c r="V9" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="82" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="82" t="s">
+      <c r="O10" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="82" t="s">
+      <c r="P10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="82" t="s">
+      <c r="Q10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="82" t="s">
+      <c r="R10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="82" t="s">
+      <c r="T10" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="82" t="s">
+      <c r="U10" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="V10" s="82" t="s">
+      <c r="V10" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+    <row r="11" spans="2:22" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="46" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="84" t="s">
+      <c r="M11" s="33"/>
+      <c r="N11" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83" t="s">
+      <c r="O11" s="49"/>
+      <c r="P11" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="86" t="s">
+      <c r="Q11" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="84" t="s">
+      <c r="R11" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S11" s="84" t="s">
+      <c r="S11" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84" t="s">
+      <c r="T11" s="49"/>
+      <c r="U11" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="83"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V11" s="49"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>134</v>
       </c>
@@ -4576,49 +4278,48 @@
       <c r="E12">
         <v>2006</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="30">
         <v>0.41</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="29">
         <v>16.5</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="30">
         <v>1.25</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="40">
         <v>16</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="30">
         <v>0.16</v>
       </c>
       <c r="K12">
         <v>15</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="42">
         <v>1E-3</v>
       </c>
-      <c r="M12"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83" t="s">
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="Q12" s="86" t="s">
+      <c r="Q12" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S12" s="84" t="s">
+      <c r="S12" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="49"/>
+      <c r="U12" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="V12" s="83"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="49"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>139</v>
       </c>
@@ -4631,49 +4332,48 @@
       <c r="E13">
         <v>2006</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="30">
         <v>0.38</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="29">
         <v>14</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="30">
         <v>1.25</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="40">
         <v>15.5</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="43">
         <v>0.16</v>
       </c>
       <c r="K13">
         <v>15</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="42">
         <v>1E-3</v>
       </c>
-      <c r="M13"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83" t="s">
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="R13" s="84" t="s">
+      <c r="R13" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S13" s="84" t="s">
+      <c r="S13" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84" t="s">
+      <c r="T13" s="49"/>
+      <c r="U13" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="V13" s="83"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V13" s="49"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>142</v>
       </c>
@@ -4686,49 +4386,48 @@
       <c r="E14">
         <v>2006</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="43">
         <v>0.4</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="29">
         <v>11.5</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="30">
         <v>1.25</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="40">
         <v>15.5</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="30">
         <v>0.15</v>
       </c>
       <c r="K14">
         <v>15</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="42">
         <v>1E-3</v>
       </c>
-      <c r="M14"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83" t="s">
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="Q14" s="86" t="s">
+      <c r="Q14" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="84" t="s">
+      <c r="R14" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S14" s="84" t="s">
+      <c r="S14" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84" t="s">
+      <c r="T14" s="49"/>
+      <c r="U14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="83"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="49"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
@@ -4747,43 +4446,42 @@
       <c r="G15">
         <v>14</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="30">
         <v>1.25</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="40">
         <v>18</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="30">
         <v>0.16</v>
       </c>
       <c r="K15">
         <v>15</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="42">
         <v>1E-3</v>
       </c>
-      <c r="M15"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84" t="s">
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="Q15" s="87" t="s">
+      <c r="Q15" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="R15" s="84" t="s">
+      <c r="R15" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S15" s="84" t="s">
+      <c r="S15" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84" t="s">
+      <c r="T15" s="49"/>
+      <c r="U15" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="V15" s="83"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="49"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>148</v>
       </c>
@@ -4796,39 +4494,30 @@
       <c r="E16">
         <v>2006</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="30">
         <v>1.2000000000000002</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="29">
         <v>11.5</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="30">
         <v>1.25</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="40">
         <v>25</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="30">
         <v>0.25</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="42">
         <v>1E-3</v>
       </c>
-      <c r="M16"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4836,418 +4525,347 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="24"/>
-    <col min="16" max="16" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="2" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.6640625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="22"/>
+    <col min="16" max="16" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+    <row r="2" spans="2:18" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="90" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="82" t="s">
+    <row r="4" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="J4" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="90" t="s">
+      <c r="O7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="90" t="s">
+      <c r="Q7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="90" t="s">
+      <c r="R7" s="54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="2:18" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="82" t="s">
+      <c r="Q8" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="82" t="s">
+      <c r="R8" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="61" t="str">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="37" t="str">
         <f>G2&amp;"/"&amp;$F$2</f>
         <v>M€/PJ</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F10" s="29"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="26"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G12" s="30"/>
-      <c r="H12" s="26"/>
-      <c r="J12" s="57"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G13" s="30"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="57"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="26"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="26"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="26"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="26"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="L10"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="26"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="26"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="26"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="26"/>
+      <c r="L15"/>
+      <c r="M15" s="20"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L16"/>
+      <c r="M16" s="20"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L17"/>
+      <c r="M17" s="20"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L18"/>
+      <c r="M18" s="20"/>
+      <c r="N18"/>
+      <c r="O18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>